--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6aa45abea3188621/Desktop/fintech/module_16/challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="8_{30FD28F0-F712-4E40-9789-024E83B10B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5C89F12-8705-421D-A7EF-F5AB5D6BBC93}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{30FD28F0-F712-4E40-9789-024E83B10B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FDCAA19-FF61-4C74-B919-F84D0B8E488C}"/>
   <bookViews>
-    <workbookView xWindow="15480" yWindow="60" windowWidth="22935" windowHeight="15450" xr2:uid="{01C1F47E-B5A1-4D4D-BE56-E20808846E2C}"/>
+    <workbookView xWindow="17520" yWindow="60" windowWidth="20820" windowHeight="15450" xr2:uid="{01C1F47E-B5A1-4D4D-BE56-E20808846E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 - 2023 AAPL Data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>x</t>
   </si>
@@ -85,6 +85,9 @@
   <si>
     <t>Alex</t>
   </si>
+  <si>
+    <t>Short-term r 5y (reuse) - NASDAQ</t>
+  </si>
 </sst>
 </file>
 
@@ -132,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -141,6 +144,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC2FC6F-AA4B-4A93-9BA2-9D50BC936DD5}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L628"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -468,15 +472,16 @@
     <col min="3" max="3" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
@@ -496,19 +501,22 @@
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -528,24 +536,27 @@
         <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>44200</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -559,14 +570,14 @@
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
+      <c r="F3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.66</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>0</v>
@@ -575,10 +586,8764 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>44201</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>44202</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>44203</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>44204</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>44207</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>44208</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>44209</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>44210</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>44211</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>44215</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>44216</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>44217</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>44218</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>44221</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>44222</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>44223</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>44224</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>44225</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>44228</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>44229</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>44230</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>44231</v>
+      </c>
+      <c r="F25" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>44232</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>44235</v>
+      </c>
+      <c r="F27" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>44236</v>
+      </c>
+      <c r="F28" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>44237</v>
+      </c>
+      <c r="F29" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>44238</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>44239</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>44243</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>44244</v>
+      </c>
+      <c r="F33" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>44245</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>44246</v>
+      </c>
+      <c r="F35" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>44249</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>44250</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>44251</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>44252</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>44253</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>44256</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>44257</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>44258</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>44259</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>44260</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>44263</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>44264</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>44265</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>44266</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>44267</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>44270</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>44271</v>
+      </c>
+      <c r="F52" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>44272</v>
+      </c>
+      <c r="F53" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>44273</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="H54" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>44274</v>
+      </c>
+      <c r="F55" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>44277</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>44278</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="H57" s="1">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>44279</v>
+      </c>
+      <c r="F58" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="H58" s="1">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>44280</v>
+      </c>
+      <c r="F59" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>44281</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="H60" s="1">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>44284</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="H61" s="1">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>44285</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H62" s="1">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>44286</v>
+      </c>
+      <c r="F63" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="H63" s="1">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>44287</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H64" s="1">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>44288</v>
+      </c>
+      <c r="F65" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="H65" s="1">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>44291</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="H66" s="1">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>44292</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="H67" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>44293</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>44294</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="H69" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>44295</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="H70" s="1">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>44298</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="H71" s="1">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>44299</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="H72" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>44300</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="H73" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>44301</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="H74" s="1">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>44302</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="H75" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>44305</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="H76" s="1">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>44306</v>
+      </c>
+      <c r="F77" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="H77" s="1">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>44307</v>
+      </c>
+      <c r="F78" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="H78" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>44308</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="H79" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>44309</v>
+      </c>
+      <c r="F80" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="H80" s="1">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>44312</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="H81" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>44313</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="H82" s="1">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>44314</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="H83" s="1">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>44315</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="H84" s="1">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>44316</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="H85" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>44319</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="H86" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>44320</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="H87" s="1">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>44321</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H88" s="1">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>44322</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="H89" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>44323</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="H90" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>44326</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H91" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>44327</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H92" s="1">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>44328</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="H93" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>44329</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="H94" s="1">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>44330</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="H95" s="1">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>44333</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="H96" s="1">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>44334</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="H97" s="1">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>44335</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="H98" s="1">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>44336</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="H99" s="1">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>44337</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="H100" s="1">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>44340</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="H101" s="1">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>44341</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H102" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>44342</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H103" s="1">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>44343</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="H104" s="1">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>44344</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H105" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>44348</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="H106" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>44349</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H107" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
+        <v>44350</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="H108" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
+        <v>44351</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="H109" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
+        <v>44354</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H110" s="1">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
+        <v>44355</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="H111" s="1">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>44356</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H112" s="1">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
+        <v>44357</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="H113" s="1">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
+        <v>44358</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="H114" s="1">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <v>44361</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H115" s="1">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
+        <v>44362</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H116" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <v>44363</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="H117" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
+        <v>44364</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H118" s="1">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
+        <v>44365</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="H119" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
+        <v>44368</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H120" s="1">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>44369</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="H121" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <v>44370</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H122" s="1">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>44371</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H123" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
+        <v>44372</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="H124" s="1">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
+        <v>44375</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H125" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <v>44376</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="H126" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="4">
+        <v>44377</v>
+      </c>
+      <c r="F127" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="H127" s="1">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
+        <v>44378</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="H128" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>44379</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="H129" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
+        <v>44383</v>
+      </c>
+      <c r="F130" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="H130" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
+        <v>44384</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H131" s="1">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>44385</v>
+      </c>
+      <c r="F132" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="H132" s="1">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>44386</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H133" s="1">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>44389</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G134" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="H134" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>44390</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="H135" s="1">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>44391</v>
+      </c>
+      <c r="F136" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H136" s="1">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>44392</v>
+      </c>
+      <c r="F137" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="H137" s="1">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="4">
+        <v>44393</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H138" s="1">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="4">
+        <v>44396</v>
+      </c>
+      <c r="F139" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H139" s="1">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="4">
+        <v>44397</v>
+      </c>
+      <c r="F140" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="H140" s="1">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="4">
+        <v>44398</v>
+      </c>
+      <c r="F141" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="H141" s="1">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="4">
+        <v>44399</v>
+      </c>
+      <c r="F142" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="H142" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="4">
+        <v>44400</v>
+      </c>
+      <c r="F143" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G143" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="H143" s="1">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="4">
+        <v>44403</v>
+      </c>
+      <c r="F144" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="H144" s="1">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="4">
+        <v>44404</v>
+      </c>
+      <c r="F145" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="H145" s="1">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="4">
+        <v>44405</v>
+      </c>
+      <c r="F146" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="H146" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="4">
+        <v>44406</v>
+      </c>
+      <c r="F147" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G147" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="H147" s="1">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="4">
+        <v>44407</v>
+      </c>
+      <c r="F148" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="H148" s="1">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="4">
+        <v>44410</v>
+      </c>
+      <c r="F149" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G149" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="H149" s="1">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="4">
+        <v>44411</v>
+      </c>
+      <c r="F150" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G150" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H150" s="1">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="4">
+        <v>44412</v>
+      </c>
+      <c r="F151" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G151" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H151" s="1">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="4">
+        <v>44413</v>
+      </c>
+      <c r="F152" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G152" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="H152" s="1">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="4">
+        <v>44414</v>
+      </c>
+      <c r="F153" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G153" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="H153" s="1">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="4">
+        <v>44417</v>
+      </c>
+      <c r="F154" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G154" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H154" s="1">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="4">
+        <v>44418</v>
+      </c>
+      <c r="F155" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G155" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="H155" s="1">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="4">
+        <v>44419</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G156" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="H156" s="1">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="4">
+        <v>44420</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G157" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="H157" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="4">
+        <v>44421</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G158" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H158" s="1">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="4">
+        <v>44424</v>
+      </c>
+      <c r="F159" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G159" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H159" s="1">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="4">
+        <v>44425</v>
+      </c>
+      <c r="F160" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G160" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="H160" s="1">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="4">
+        <v>44426</v>
+      </c>
+      <c r="F161" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G161" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H161" s="1">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="4">
+        <v>44427</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G162" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="H162" s="1">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="4">
+        <v>44428</v>
+      </c>
+      <c r="F163" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G163" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H163" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="4">
+        <v>44431</v>
+      </c>
+      <c r="F164" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G164" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="H164" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="4">
+        <v>44432</v>
+      </c>
+      <c r="F165" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G165" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H165" s="1">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="4">
+        <v>44433</v>
+      </c>
+      <c r="F166" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G166" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="H166" s="1">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="4">
+        <v>44434</v>
+      </c>
+      <c r="F167" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G167" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="H167" s="1">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="4">
+        <v>44435</v>
+      </c>
+      <c r="F168" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G168" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H168" s="1">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="4">
+        <v>44438</v>
+      </c>
+      <c r="F169" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G169" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="H169" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="4">
+        <v>44439</v>
+      </c>
+      <c r="F170" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G170" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="H170" s="1">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="4">
+        <v>44440</v>
+      </c>
+      <c r="F171" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G171" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="H171" s="1">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="4">
+        <v>44441</v>
+      </c>
+      <c r="F172" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G172" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="H172" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="4">
+        <v>44442</v>
+      </c>
+      <c r="F173" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G173" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="H173" s="1">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="4">
+        <v>44446</v>
+      </c>
+      <c r="F174" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G174" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="H174" s="1">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="4">
+        <v>44447</v>
+      </c>
+      <c r="F175" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G175" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="H175" s="1">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="4">
+        <v>44448</v>
+      </c>
+      <c r="F176" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G176" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H176" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="4">
+        <v>44449</v>
+      </c>
+      <c r="F177" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G177" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="H177" s="1">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="4">
+        <v>44452</v>
+      </c>
+      <c r="F178" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G178" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="H178" s="1">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="4">
+        <v>44453</v>
+      </c>
+      <c r="F179" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G179" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H179" s="1">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="4">
+        <v>44454</v>
+      </c>
+      <c r="F180" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G180" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="H180" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="4">
+        <v>44455</v>
+      </c>
+      <c r="F181" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G181" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="H181" s="1">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="4">
+        <v>44456</v>
+      </c>
+      <c r="F182" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G182" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="H182" s="1">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="4">
+        <v>44459</v>
+      </c>
+      <c r="F183" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G183" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="H183" s="1">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="4">
+        <v>44460</v>
+      </c>
+      <c r="F184" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G184" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="H184" s="1">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="4">
+        <v>44461</v>
+      </c>
+      <c r="F185" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G185" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="H185" s="1">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="4">
+        <v>44462</v>
+      </c>
+      <c r="F186" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G186" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="H186" s="1">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="4">
+        <v>44463</v>
+      </c>
+      <c r="F187" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G187" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="H187" s="1">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="4">
+        <v>44466</v>
+      </c>
+      <c r="F188" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G188" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="H188" s="1">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="4">
+        <v>44467</v>
+      </c>
+      <c r="F189" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G189" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="H189" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="4">
+        <v>44468</v>
+      </c>
+      <c r="F190" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G190" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="H190" s="1">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="4">
+        <v>44469</v>
+      </c>
+      <c r="F191" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G191" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="H191" s="1">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="4">
+        <v>44470</v>
+      </c>
+      <c r="F192" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G192" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="H192" s="1">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="4">
+        <v>44473</v>
+      </c>
+      <c r="F193" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G193" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H193" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="4">
+        <v>44474</v>
+      </c>
+      <c r="F194" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G194" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="H194" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="4">
+        <v>44475</v>
+      </c>
+      <c r="F195" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G195" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="H195" s="1">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="4">
+        <v>44476</v>
+      </c>
+      <c r="F196" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G196" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="H196" s="1">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="4">
+        <v>44477</v>
+      </c>
+      <c r="F197" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G197" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="H197" s="1">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="4">
+        <v>44481</v>
+      </c>
+      <c r="F198" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G198" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="H198" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="4">
+        <v>44482</v>
+      </c>
+      <c r="F199" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="G199" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H199" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="4">
+        <v>44483</v>
+      </c>
+      <c r="F200" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G200" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="H200" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="4">
+        <v>44484</v>
+      </c>
+      <c r="F201" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G201" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H201" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="4">
+        <v>44487</v>
+      </c>
+      <c r="F202" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="G202" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H202" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="4">
+        <v>44488</v>
+      </c>
+      <c r="F203" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="G203" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="H203" s="1">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="4">
+        <v>44489</v>
+      </c>
+      <c r="F204" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G204" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H204" s="1">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="4">
+        <v>44490</v>
+      </c>
+      <c r="F205" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G205" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="H205" s="1">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="4">
+        <v>44491</v>
+      </c>
+      <c r="F206" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="G206" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="H206" s="1">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="4">
+        <v>44494</v>
+      </c>
+      <c r="F207" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G207" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="H207" s="1">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="4">
+        <v>44495</v>
+      </c>
+      <c r="F208" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G208" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H208" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="4">
+        <v>44496</v>
+      </c>
+      <c r="F209" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G209" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H209" s="1">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="4">
+        <v>44497</v>
+      </c>
+      <c r="F210" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G210" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="H210" s="1">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="4">
+        <v>44498</v>
+      </c>
+      <c r="F211" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G211" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="H211" s="1">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="4">
+        <v>44501</v>
+      </c>
+      <c r="F212" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G212" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H212" s="1">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="4">
+        <v>44502</v>
+      </c>
+      <c r="F213" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G213" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H213" s="1">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="4">
+        <v>44503</v>
+      </c>
+      <c r="F214" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G214" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="H214" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="4">
+        <v>44504</v>
+      </c>
+      <c r="F215" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G215" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H215" s="1">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="4">
+        <v>44505</v>
+      </c>
+      <c r="F216" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G216" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="H216" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="4">
+        <v>44508</v>
+      </c>
+      <c r="F217" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="G217" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H217" s="1">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="4">
+        <v>44509</v>
+      </c>
+      <c r="F218" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G218" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="H218" s="1">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="4">
+        <v>44510</v>
+      </c>
+      <c r="F219" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G219" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="H219" s="1">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="4">
+        <v>44512</v>
+      </c>
+      <c r="F220" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G220" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="H220" s="1">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="4">
+        <v>44515</v>
+      </c>
+      <c r="F221" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="G221" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="H221" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="4">
+        <v>44516</v>
+      </c>
+      <c r="F222" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G222" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="H222" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" s="4">
+        <v>44517</v>
+      </c>
+      <c r="F223" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="G223" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="H223" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" s="4">
+        <v>44518</v>
+      </c>
+      <c r="F224" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="G224" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="H224" s="1">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" s="4">
+        <v>44519</v>
+      </c>
+      <c r="F225" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="G225" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="H225" s="1">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="4">
+        <v>44522</v>
+      </c>
+      <c r="F226" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G226" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="H226" s="1">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" s="4">
+        <v>44523</v>
+      </c>
+      <c r="F227" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="G227" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="H227" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" s="4">
+        <v>44524</v>
+      </c>
+      <c r="F228" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G228" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="H228" s="1">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" s="4">
+        <v>44526</v>
+      </c>
+      <c r="F229" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G229" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H229" s="1">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" s="4">
+        <v>44529</v>
+      </c>
+      <c r="F230" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="G230" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="H230" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" s="4">
+        <v>44530</v>
+      </c>
+      <c r="F231" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G231" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H231" s="1">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="4">
+        <v>44531</v>
+      </c>
+      <c r="F232" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G232" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H232" s="1">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" s="4">
+        <v>44532</v>
+      </c>
+      <c r="F233" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="G233" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="H233" s="1">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" s="4">
+        <v>44533</v>
+      </c>
+      <c r="F234" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="G234" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H234" s="1">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" s="4">
+        <v>44536</v>
+      </c>
+      <c r="F235" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G235" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="H235" s="1">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" s="4">
+        <v>44537</v>
+      </c>
+      <c r="F236" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="G236" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="H236" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" s="4">
+        <v>44538</v>
+      </c>
+      <c r="F237" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G237" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="H237" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" s="4">
+        <v>44539</v>
+      </c>
+      <c r="F238" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G238" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="H238" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" s="4">
+        <v>44540</v>
+      </c>
+      <c r="F239" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="G239" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="H239" s="1">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" s="4">
+        <v>44543</v>
+      </c>
+      <c r="F240" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="G240" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="H240" s="1">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" s="4">
+        <v>44544</v>
+      </c>
+      <c r="F241" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="G241" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="H241" s="1">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" s="4">
+        <v>44545</v>
+      </c>
+      <c r="F242" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G242" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="H242" s="1">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" s="4">
+        <v>44546</v>
+      </c>
+      <c r="F243" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="G243" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="H243" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" s="4">
+        <v>44547</v>
+      </c>
+      <c r="F244" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="G244" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="H244" s="1">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" s="4">
+        <v>44550</v>
+      </c>
+      <c r="F245" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="G245" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="H245" s="1">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" s="4">
+        <v>44551</v>
+      </c>
+      <c r="F246" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G246" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="H246" s="1">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" s="4">
+        <v>44552</v>
+      </c>
+      <c r="F247" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G247" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="H247" s="1">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" s="4">
+        <v>44553</v>
+      </c>
+      <c r="F248" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="G248" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="H248" s="1">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" s="4">
+        <v>44557</v>
+      </c>
+      <c r="F249" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G249" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="H249" s="1">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" s="4">
+        <v>44558</v>
+      </c>
+      <c r="F250" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="G250" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="H250" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" s="4">
+        <v>44559</v>
+      </c>
+      <c r="F251" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G251" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="H251" s="1">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" s="4">
+        <v>44560</v>
+      </c>
+      <c r="F252" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G252" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="H252" s="1">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" s="4">
+        <v>44561</v>
+      </c>
+      <c r="F253" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="G253" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="H253" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" s="4">
+        <v>44564</v>
+      </c>
+      <c r="F254" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G254" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="H254" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" s="4">
+        <v>44565</v>
+      </c>
+      <c r="F255" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G255" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="H255" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" s="4">
+        <v>44566</v>
+      </c>
+      <c r="F256" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="G256" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="H256" s="1">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257" s="4">
+        <v>44567</v>
+      </c>
+      <c r="F257" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G257" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="H257" s="1">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258" s="4">
+        <v>44568</v>
+      </c>
+      <c r="F258" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="G258" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H258" s="1">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259" s="4">
+        <v>44571</v>
+      </c>
+      <c r="F259" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="G259" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="H259" s="1">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" s="4">
+        <v>44572</v>
+      </c>
+      <c r="F260" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="G260" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="H260" s="1">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" s="4">
+        <v>44573</v>
+      </c>
+      <c r="F261" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="G261" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H261" s="1">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" s="4">
+        <v>44574</v>
+      </c>
+      <c r="F262" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="G262" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="H262" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" s="4">
+        <v>44575</v>
+      </c>
+      <c r="F263" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="G263" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="H263" s="1">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" s="4">
+        <v>44579</v>
+      </c>
+      <c r="F264" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G264" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="H264" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" s="4">
+        <v>44580</v>
+      </c>
+      <c r="F265" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G265" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="H265" s="1">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" s="4">
+        <v>44581</v>
+      </c>
+      <c r="F266" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G266" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="H266" s="1">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" s="4">
+        <v>44582</v>
+      </c>
+      <c r="F267" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G267" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="H267" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" s="4">
+        <v>44585</v>
+      </c>
+      <c r="F268" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G268" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="H268" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" s="4">
+        <v>44586</v>
+      </c>
+      <c r="F269" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G269" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="H269" s="1">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270" s="4">
+        <v>44587</v>
+      </c>
+      <c r="F270" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G270" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="H270" s="1">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271" s="4">
+        <v>44588</v>
+      </c>
+      <c r="F271" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G271" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="H271" s="1">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" s="4">
+        <v>44589</v>
+      </c>
+      <c r="F272" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G272" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="H272" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" s="4">
+        <v>44592</v>
+      </c>
+      <c r="F273" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="G273" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="H273" s="1">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274" s="4">
+        <v>44593</v>
+      </c>
+      <c r="F274" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="G274" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="H274" s="1">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" s="4">
+        <v>44594</v>
+      </c>
+      <c r="F275" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="G275" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="H275" s="1">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276" s="4">
+        <v>44595</v>
+      </c>
+      <c r="F276" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="G276" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="H276" s="1">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" s="4">
+        <v>44596</v>
+      </c>
+      <c r="F277" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="G277" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="H277" s="1">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" s="4">
+        <v>44599</v>
+      </c>
+      <c r="F278" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="G278" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="H278" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" s="4">
+        <v>44600</v>
+      </c>
+      <c r="F279" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="G279" s="1">
+        <v>1.81</v>
+      </c>
+      <c r="H279" s="1">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" s="4">
+        <v>44601</v>
+      </c>
+      <c r="F280" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="G280" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="H280" s="1">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" s="4">
+        <v>44602</v>
+      </c>
+      <c r="F281" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G281" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="H281" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" s="4">
+        <v>44603</v>
+      </c>
+      <c r="F282" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="G282" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="H282" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283" s="4">
+        <v>44606</v>
+      </c>
+      <c r="F283" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G283" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="H283" s="1">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A284" s="4">
+        <v>44607</v>
+      </c>
+      <c r="F284" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G284" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="H284" s="1">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285" s="4">
+        <v>44608</v>
+      </c>
+      <c r="F285" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G285" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="H285" s="1">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286" s="4">
+        <v>44609</v>
+      </c>
+      <c r="F286" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="G286" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="H286" s="1">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287" s="4">
+        <v>44610</v>
+      </c>
+      <c r="F287" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="G287" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="H287" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288" s="4">
+        <v>44614</v>
+      </c>
+      <c r="F288" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="G288" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="H288" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A289" s="4">
+        <v>44615</v>
+      </c>
+      <c r="F289" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G289" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="H289" s="1">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A290" s="4">
+        <v>44616</v>
+      </c>
+      <c r="F290" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="G290" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="H290" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" s="4">
+        <v>44617</v>
+      </c>
+      <c r="F291" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G291" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="H291" s="1">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292" s="4">
+        <v>44620</v>
+      </c>
+      <c r="F292" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="G292" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="H292" s="1">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" s="4">
+        <v>44621</v>
+      </c>
+      <c r="F293" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="G293" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="H293" s="1">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294" s="4">
+        <v>44622</v>
+      </c>
+      <c r="F294" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="G294" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="H294" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A295" s="4">
+        <v>44623</v>
+      </c>
+      <c r="F295" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="G295" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="H295" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A296" s="4">
+        <v>44624</v>
+      </c>
+      <c r="F296" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="G296" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="H296" s="1">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A297" s="4">
+        <v>44627</v>
+      </c>
+      <c r="F297" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="G297" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="H297" s="1">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A298" s="4">
+        <v>44628</v>
+      </c>
+      <c r="F298" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G298" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="H298" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A299" s="4">
+        <v>44629</v>
+      </c>
+      <c r="F299" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G299" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="H299" s="1">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300" s="4">
+        <v>44630</v>
+      </c>
+      <c r="F300" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="G300" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="H300" s="1">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A301" s="4">
+        <v>44631</v>
+      </c>
+      <c r="F301" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="G301" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="H301" s="1">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A302" s="4">
+        <v>44634</v>
+      </c>
+      <c r="F302" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="G302" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="H302" s="1">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A303" s="4">
+        <v>44635</v>
+      </c>
+      <c r="F303" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="G303" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="H303" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A304" s="4">
+        <v>44636</v>
+      </c>
+      <c r="F304" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="G304" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H304" s="1">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" s="4">
+        <v>44637</v>
+      </c>
+      <c r="F305" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="G305" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="H305" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306" s="4">
+        <v>44638</v>
+      </c>
+      <c r="F306" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="G306" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="H306" s="1">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307" s="4">
+        <v>44641</v>
+      </c>
+      <c r="F307" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G307" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="H307" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A308" s="4">
+        <v>44642</v>
+      </c>
+      <c r="F308" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="G308" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="H308" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A309" s="4">
+        <v>44643</v>
+      </c>
+      <c r="F309" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="G309" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="H309" s="1">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A310" s="4">
+        <v>44644</v>
+      </c>
+      <c r="F310" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="G310" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="H310" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A311" s="4">
+        <v>44645</v>
+      </c>
+      <c r="F311" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="G311" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H311" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A312" s="4">
+        <v>44648</v>
+      </c>
+      <c r="F312" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="G312" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="H312" s="1">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A313" s="4">
+        <v>44649</v>
+      </c>
+      <c r="F313" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="G313" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H313" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A314" s="4">
+        <v>44650</v>
+      </c>
+      <c r="F314" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="G314" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="H314" s="1">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A315" s="4">
+        <v>44651</v>
+      </c>
+      <c r="F315" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="G315" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="H315" s="1">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A316" s="4">
+        <v>44652</v>
+      </c>
+      <c r="F316" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="G316" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H316" s="1">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A317" s="4">
+        <v>44655</v>
+      </c>
+      <c r="F317" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="G317" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="H317" s="1">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A318" s="4">
+        <v>44656</v>
+      </c>
+      <c r="F318" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="G318" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="H318" s="1">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A319" s="4">
+        <v>44657</v>
+      </c>
+      <c r="F319" s="1">
+        <v>1.79</v>
+      </c>
+      <c r="G319" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H319" s="1">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A320" s="4">
+        <v>44658</v>
+      </c>
+      <c r="F320" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G320" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H320" s="1">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A321" s="4">
+        <v>44659</v>
+      </c>
+      <c r="F321" s="1">
+        <v>1.81</v>
+      </c>
+      <c r="G321" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="H321" s="1">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A322" s="4">
+        <v>44662</v>
+      </c>
+      <c r="F322" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="G322" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="H322" s="1">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A323" s="4">
+        <v>44663</v>
+      </c>
+      <c r="F323" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="G323" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="H323" s="1">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A324" s="4">
+        <v>44664</v>
+      </c>
+      <c r="F324" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G324" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="H324" s="1">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A325" s="4">
+        <v>44665</v>
+      </c>
+      <c r="F325" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="G325" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="H325" s="1">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A326" s="4">
+        <v>44669</v>
+      </c>
+      <c r="F326" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="G326" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="H326" s="1">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A327" s="4">
+        <v>44670</v>
+      </c>
+      <c r="F327" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="G327" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="H327" s="1">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A328" s="4">
+        <v>44671</v>
+      </c>
+      <c r="F328" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="G328" s="1">
+        <v>2.87</v>
+      </c>
+      <c r="H328" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A329" s="4">
+        <v>44672</v>
+      </c>
+      <c r="F329" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G329" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="H329" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A330" s="4">
+        <v>44673</v>
+      </c>
+      <c r="F330" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="G330" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="H330" s="1">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A331" s="4">
+        <v>44676</v>
+      </c>
+      <c r="F331" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G331" s="1">
+        <v>2.84</v>
+      </c>
+      <c r="H331" s="1">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A332" s="4">
+        <v>44677</v>
+      </c>
+      <c r="F332" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="G332" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="H332" s="1">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A333" s="4">
+        <v>44678</v>
+      </c>
+      <c r="F333" s="1">
+        <v>1.97</v>
+      </c>
+      <c r="G333" s="1">
+        <v>2.81</v>
+      </c>
+      <c r="H333" s="1">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A334" s="4">
+        <v>44679</v>
+      </c>
+      <c r="F334" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="G334" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="H334" s="1">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A335" s="4">
+        <v>44680</v>
+      </c>
+      <c r="F335" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="G335" s="1">
+        <v>2.92</v>
+      </c>
+      <c r="H335" s="1">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A336" s="4">
+        <v>44683</v>
+      </c>
+      <c r="F336" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="G336" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="H336" s="1">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A337" s="4">
+        <v>44684</v>
+      </c>
+      <c r="F337" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="G337" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="H337" s="1">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A338" s="4">
+        <v>44685</v>
+      </c>
+      <c r="F338" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G338" s="1">
+        <v>2.93</v>
+      </c>
+      <c r="H338" s="1">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A339" s="4">
+        <v>44686</v>
+      </c>
+      <c r="F339" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="G339" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="H339" s="1">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A340" s="4">
+        <v>44687</v>
+      </c>
+      <c r="F340" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="G340" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="H340" s="1">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A341" s="4">
+        <v>44690</v>
+      </c>
+      <c r="F341" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="G341" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="H341" s="1">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A342" s="4">
+        <v>44691</v>
+      </c>
+      <c r="F342" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G342" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="H342" s="1">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A343" s="4">
+        <v>44692</v>
+      </c>
+      <c r="F343" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="G343" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="H343" s="1">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A344" s="4">
+        <v>44693</v>
+      </c>
+      <c r="F344" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="G344" s="1">
+        <v>2.81</v>
+      </c>
+      <c r="H344" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A345" s="4">
+        <v>44694</v>
+      </c>
+      <c r="F345" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="G345" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="H345" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A346" s="4">
+        <v>44697</v>
+      </c>
+      <c r="F346" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G346" s="1">
+        <v>2.83</v>
+      </c>
+      <c r="H346" s="1">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A347" s="4">
+        <v>44698</v>
+      </c>
+      <c r="F347" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="G347" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="H347" s="1">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A348" s="4">
+        <v>44699</v>
+      </c>
+      <c r="F348" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="G348" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="H348" s="1">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A349" s="4">
+        <v>44700</v>
+      </c>
+      <c r="F349" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="G349" s="1">
+        <v>2.84</v>
+      </c>
+      <c r="H349" s="1">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A350" s="4">
+        <v>44701</v>
+      </c>
+      <c r="F350" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G350" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="H350" s="1">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A351" s="4">
+        <v>44704</v>
+      </c>
+      <c r="F351" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="G351" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="H351" s="1">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A352" s="4">
+        <v>44705</v>
+      </c>
+      <c r="F352" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="G352" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="H352" s="1">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A353" s="4">
+        <v>44706</v>
+      </c>
+      <c r="F353" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G353" s="1">
+        <v>2.71</v>
+      </c>
+      <c r="H353" s="1">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A354" s="4">
+        <v>44707</v>
+      </c>
+      <c r="F354" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="G354" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H354" s="1">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A355" s="4">
+        <v>44708</v>
+      </c>
+      <c r="F355" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G355" s="1">
+        <v>2.71</v>
+      </c>
+      <c r="H355" s="1">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A356" s="4">
+        <v>44712</v>
+      </c>
+      <c r="F356" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="G356" s="1">
+        <v>2.81</v>
+      </c>
+      <c r="H356" s="1">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A357" s="4">
+        <v>44713</v>
+      </c>
+      <c r="F357" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="G357" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="H357" s="1">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A358" s="4">
+        <v>44714</v>
+      </c>
+      <c r="F358" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="G358" s="1">
+        <v>2.92</v>
+      </c>
+      <c r="H358" s="1">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A359" s="4">
+        <v>44715</v>
+      </c>
+      <c r="F359" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G359" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="H359" s="1">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A360" s="4">
+        <v>44718</v>
+      </c>
+      <c r="F360" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="G360" s="1">
+        <v>3.03</v>
+      </c>
+      <c r="H360" s="1">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A361" s="4">
+        <v>44719</v>
+      </c>
+      <c r="F361" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G361" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="H361" s="1">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A362" s="4">
+        <v>44720</v>
+      </c>
+      <c r="F362" s="1">
+        <v>2.29</v>
+      </c>
+      <c r="G362" s="1">
+        <v>3.03</v>
+      </c>
+      <c r="H362" s="1">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A363" s="4">
+        <v>44721</v>
+      </c>
+      <c r="F363" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="G363" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="H363" s="1">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A364" s="4">
+        <v>44722</v>
+      </c>
+      <c r="F364" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="G364" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="H364" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A365" s="4">
+        <v>44725</v>
+      </c>
+      <c r="F365" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G365" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="H365" s="1">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A366" s="4">
+        <v>44726</v>
+      </c>
+      <c r="F366" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="G366" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="H366" s="1">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A367" s="4">
+        <v>44727</v>
+      </c>
+      <c r="F367" s="1">
+        <v>2.93</v>
+      </c>
+      <c r="G367" s="1">
+        <v>3.38</v>
+      </c>
+      <c r="H367" s="1">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A368" s="4">
+        <v>44728</v>
+      </c>
+      <c r="F368" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="G368" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="H368" s="1">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A369" s="4">
+        <v>44729</v>
+      </c>
+      <c r="F369" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="G369" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="H369" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A370" s="4">
+        <v>44733</v>
+      </c>
+      <c r="F370" s="1">
+        <v>2.92</v>
+      </c>
+      <c r="G370" s="1">
+        <v>3.38</v>
+      </c>
+      <c r="H370" s="1">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A371" s="4">
+        <v>44734</v>
+      </c>
+      <c r="F371" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="G371" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="H371" s="1">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A372" s="4">
+        <v>44735</v>
+      </c>
+      <c r="F372" s="1">
+        <v>2.78</v>
+      </c>
+      <c r="G372" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="H372" s="1">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A373" s="4">
+        <v>44736</v>
+      </c>
+      <c r="F373" s="1">
+        <v>2.83</v>
+      </c>
+      <c r="G373" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="H373" s="1">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A374" s="4">
+        <v>44739</v>
+      </c>
+      <c r="F374" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G374" s="1">
+        <v>3.24</v>
+      </c>
+      <c r="H374" s="1">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A375" s="4">
+        <v>44740</v>
+      </c>
+      <c r="F375" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="G375" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="H375" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A376" s="4">
+        <v>44741</v>
+      </c>
+      <c r="F376" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="G376" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="H376" s="1">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A377" s="4">
+        <v>44742</v>
+      </c>
+      <c r="F377" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G377" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="H377" s="1">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A378" s="4">
+        <v>44743</v>
+      </c>
+      <c r="F378" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="G378" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="H378" s="1">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A379" s="4">
+        <v>44747</v>
+      </c>
+      <c r="F379" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="G379" s="1">
+        <v>2.82</v>
+      </c>
+      <c r="H379" s="1">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A380" s="4">
+        <v>44748</v>
+      </c>
+      <c r="F380" s="1">
+        <v>2.82</v>
+      </c>
+      <c r="G380" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="H380" s="1">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A381" s="4">
+        <v>44749</v>
+      </c>
+      <c r="F381" s="1">
+        <v>2.87</v>
+      </c>
+      <c r="G381" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="H381" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A382" s="4">
+        <v>44750</v>
+      </c>
+      <c r="F382" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="G382" s="1">
+        <v>3.13</v>
+      </c>
+      <c r="H382" s="1">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A383" s="4">
+        <v>44753</v>
+      </c>
+      <c r="F383" s="1">
+        <v>2.97</v>
+      </c>
+      <c r="G383" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="H383" s="1">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A384" s="4">
+        <v>44754</v>
+      </c>
+      <c r="F384" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="G384" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="H384" s="1">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A385" s="4">
+        <v>44755</v>
+      </c>
+      <c r="F385" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="G385" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="H385" s="1">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A386" s="4">
+        <v>44756</v>
+      </c>
+      <c r="F386" s="1">
+        <v>3.16</v>
+      </c>
+      <c r="G386" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="H386" s="1">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A387" s="4">
+        <v>44757</v>
+      </c>
+      <c r="F387" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="G387" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="H387" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A388" s="4">
+        <v>44760</v>
+      </c>
+      <c r="F388" s="1">
+        <v>3.13</v>
+      </c>
+      <c r="G388" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="H388" s="1">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A389" s="4">
+        <v>44761</v>
+      </c>
+      <c r="F389" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="G389" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="H389" s="1">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A390" s="4">
+        <v>44762</v>
+      </c>
+      <c r="F390" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="G390" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="H390" s="1">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A391" s="4">
+        <v>44763</v>
+      </c>
+      <c r="F391" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="G391" s="1">
+        <v>3</v>
+      </c>
+      <c r="H391" s="1">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A392" s="4">
+        <v>44764</v>
+      </c>
+      <c r="F392" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="G392" s="1">
+        <v>2.87</v>
+      </c>
+      <c r="H392" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A393" s="4">
+        <v>44767</v>
+      </c>
+      <c r="F393" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="G393" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="H393" s="1">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A394" s="4">
+        <v>44768</v>
+      </c>
+      <c r="F394" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="G394" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="H394" s="1">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A395" s="4">
+        <v>44769</v>
+      </c>
+      <c r="F395" s="1">
+        <v>3</v>
+      </c>
+      <c r="G395" s="1">
+        <v>2.82</v>
+      </c>
+      <c r="H395" s="1">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A396" s="4">
+        <v>44770</v>
+      </c>
+      <c r="F396" s="1">
+        <v>2.93</v>
+      </c>
+      <c r="G396" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="H396" s="1">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A397" s="4">
+        <v>44771</v>
+      </c>
+      <c r="F397" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="G397" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H397" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A398" s="4">
+        <v>44774</v>
+      </c>
+      <c r="F398" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="G398" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="H398" s="1">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A399" s="4">
+        <v>44775</v>
+      </c>
+      <c r="F399" s="1">
+        <v>3.09</v>
+      </c>
+      <c r="G399" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="H399" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A400" s="4">
+        <v>44776</v>
+      </c>
+      <c r="F400" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="G400" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="H400" s="1">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A401" s="4">
+        <v>44777</v>
+      </c>
+      <c r="F401" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="G401" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="H401" s="1">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A402" s="4">
+        <v>44778</v>
+      </c>
+      <c r="F402" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="G402" s="1">
+        <v>2.97</v>
+      </c>
+      <c r="H402" s="1">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A403" s="4">
+        <v>44781</v>
+      </c>
+      <c r="F403" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="G403" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="H403" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A404" s="4">
+        <v>44782</v>
+      </c>
+      <c r="F404" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="G404" s="1">
+        <v>2.97</v>
+      </c>
+      <c r="H404" s="1">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A405" s="4">
+        <v>44783</v>
+      </c>
+      <c r="F405" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="G405" s="1">
+        <v>2.93</v>
+      </c>
+      <c r="H405" s="1">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A406" s="4">
+        <v>44784</v>
+      </c>
+      <c r="F406" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="G406" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="H406" s="1">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A407" s="4">
+        <v>44785</v>
+      </c>
+      <c r="F407" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="G407" s="1">
+        <v>2.97</v>
+      </c>
+      <c r="H407" s="1">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A408" s="4">
+        <v>44788</v>
+      </c>
+      <c r="F408" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="G408" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="H408" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A409" s="4">
+        <v>44789</v>
+      </c>
+      <c r="F409" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="G409" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="H409" s="1">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A410" s="4">
+        <v>44790</v>
+      </c>
+      <c r="F410" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="G410" s="1">
+        <v>3.04</v>
+      </c>
+      <c r="H410" s="1">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A411" s="4">
+        <v>44791</v>
+      </c>
+      <c r="F411" s="1">
+        <v>3.24</v>
+      </c>
+      <c r="G411" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="H411" s="1">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A412" s="4">
+        <v>44792</v>
+      </c>
+      <c r="F412" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="G412" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="H412" s="1">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A413" s="4">
+        <v>44795</v>
+      </c>
+      <c r="F413" s="1">
+        <v>3.32</v>
+      </c>
+      <c r="G413" s="1">
+        <v>3.17</v>
+      </c>
+      <c r="H413" s="1">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A414" s="4">
+        <v>44796</v>
+      </c>
+      <c r="F414" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="G414" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="H414" s="1">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A415" s="4">
+        <v>44797</v>
+      </c>
+      <c r="F415" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="G415" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="H415" s="1">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A416" s="4">
+        <v>44798</v>
+      </c>
+      <c r="F416" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="G416" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="H416" s="1">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A417" s="4">
+        <v>44799</v>
+      </c>
+      <c r="F417" s="1">
+        <v>3.36</v>
+      </c>
+      <c r="G417" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="H417" s="1">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A418" s="4">
+        <v>44802</v>
+      </c>
+      <c r="F418" s="1">
+        <v>3.43</v>
+      </c>
+      <c r="G418" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="H418" s="1">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A419" s="4">
+        <v>44803</v>
+      </c>
+      <c r="F419" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="G419" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="H419" s="1">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A420" s="4">
+        <v>44804</v>
+      </c>
+      <c r="F420" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G420" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="H420" s="1">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A421" s="4">
+        <v>44805</v>
+      </c>
+      <c r="F421" s="1">
+        <v>3.51</v>
+      </c>
+      <c r="G421" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="H421" s="1">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A422" s="4">
+        <v>44806</v>
+      </c>
+      <c r="F422" s="1">
+        <v>3.47</v>
+      </c>
+      <c r="G422" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="H422" s="1">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A423" s="4">
+        <v>44810</v>
+      </c>
+      <c r="F423" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="G423" s="1">
+        <v>3.43</v>
+      </c>
+      <c r="H423" s="1">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A424" s="4">
+        <v>44811</v>
+      </c>
+      <c r="F424" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="G424" s="1">
+        <v>3.37</v>
+      </c>
+      <c r="H424" s="1">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A425" s="4">
+        <v>44812</v>
+      </c>
+      <c r="F425" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="G425" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="H425" s="1">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A426" s="4">
+        <v>44813</v>
+      </c>
+      <c r="F426" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="G426" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="H426" s="1">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A427" s="4">
+        <v>44816</v>
+      </c>
+      <c r="F427" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="G427" s="1">
+        <v>3.47</v>
+      </c>
+      <c r="H427" s="1">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A428" s="4">
+        <v>44817</v>
+      </c>
+      <c r="F428" s="1">
+        <v>3.92</v>
+      </c>
+      <c r="G428" s="1">
+        <v>3.58</v>
+      </c>
+      <c r="H428" s="1">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A429" s="4">
+        <v>44818</v>
+      </c>
+      <c r="F429" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="G429" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H429" s="1">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A430" s="4">
+        <v>44819</v>
+      </c>
+      <c r="F430" s="1">
+        <v>4</v>
+      </c>
+      <c r="G430" s="1">
+        <v>3.66</v>
+      </c>
+      <c r="H430" s="1">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A431" s="4">
+        <v>44820</v>
+      </c>
+      <c r="F431" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="G431" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="H431" s="1">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A432" s="4">
+        <v>44823</v>
+      </c>
+      <c r="F432" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="G432" s="1">
+        <v>3.69</v>
+      </c>
+      <c r="H432" s="1">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A433" s="4">
+        <v>44824</v>
+      </c>
+      <c r="F433" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="G433" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="H433" s="1">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A434" s="4">
+        <v>44825</v>
+      </c>
+      <c r="F434" s="1">
+        <v>4.08</v>
+      </c>
+      <c r="G434" s="1">
+        <v>3.74</v>
+      </c>
+      <c r="H434" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A435" s="4">
+        <v>44826</v>
+      </c>
+      <c r="F435" s="1">
+        <v>4.08</v>
+      </c>
+      <c r="G435" s="1">
+        <v>3.91</v>
+      </c>
+      <c r="H435" s="1">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A436" s="4">
+        <v>44827</v>
+      </c>
+      <c r="F436" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G436" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="H436" s="1">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A437" s="4">
+        <v>44830</v>
+      </c>
+      <c r="F437" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="G437" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="H437" s="1">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A438" s="4">
+        <v>44831</v>
+      </c>
+      <c r="F438" s="1">
+        <v>4.16</v>
+      </c>
+      <c r="G438" s="1">
+        <v>4.21</v>
+      </c>
+      <c r="H438" s="1">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A439" s="4">
+        <v>44832</v>
+      </c>
+      <c r="F439" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="G439" s="1">
+        <v>3.92</v>
+      </c>
+      <c r="H439" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A440" s="4">
+        <v>44833</v>
+      </c>
+      <c r="F440" s="1">
+        <v>3.98</v>
+      </c>
+      <c r="G440" s="1">
+        <v>3.98</v>
+      </c>
+      <c r="H440" s="1">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A441" s="4">
+        <v>44834</v>
+      </c>
+      <c r="F441" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="G441" s="1">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="H441" s="1">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A442" s="4">
+        <v>44837</v>
+      </c>
+      <c r="F442" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="G442" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H442" s="1">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A443" s="4">
+        <v>44838</v>
+      </c>
+      <c r="F443" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G443" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="H443" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A444" s="4">
+        <v>44839</v>
+      </c>
+      <c r="F444" s="1">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="G444" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="H444" s="1">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A445" s="4">
+        <v>44840</v>
+      </c>
+      <c r="F445" s="1">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="G445" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="H445" s="1">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A446" s="4">
+        <v>44841</v>
+      </c>
+      <c r="F446" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="G446" s="1">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="H446" s="1">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A447" s="4">
+        <v>44845</v>
+      </c>
+      <c r="F447" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="G447" s="1">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="H447" s="1">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A448" s="4">
+        <v>44846</v>
+      </c>
+      <c r="F448" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="G448" s="1">
+        <v>4.12</v>
+      </c>
+      <c r="H448" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A449" s="4">
+        <v>44847</v>
+      </c>
+      <c r="F449" s="1">
+        <v>4.46</v>
+      </c>
+      <c r="G449" s="1">
+        <v>4.21</v>
+      </c>
+      <c r="H449" s="1">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A450" s="4">
+        <v>44848</v>
+      </c>
+      <c r="F450" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G450" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="H450" s="1">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A451" s="4">
+        <v>44851</v>
+      </c>
+      <c r="F451" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G451" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="H451" s="1">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A452" s="4">
+        <v>44852</v>
+      </c>
+      <c r="F452" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G452" s="1">
+        <v>4.21</v>
+      </c>
+      <c r="H452" s="1">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A453" s="4">
+        <v>44853</v>
+      </c>
+      <c r="F453" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G453" s="1">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="H453" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A454" s="4">
+        <v>44854</v>
+      </c>
+      <c r="F454" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="G454" s="1">
+        <v>4.45</v>
+      </c>
+      <c r="H454" s="1">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A455" s="4">
+        <v>44855</v>
+      </c>
+      <c r="F455" s="1">
+        <v>4.58</v>
+      </c>
+      <c r="G455" s="1">
+        <v>4.34</v>
+      </c>
+      <c r="H455" s="1">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A456" s="4">
+        <v>44858</v>
+      </c>
+      <c r="F456" s="1">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="G456" s="1">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="H456" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A457" s="4">
+        <v>44859</v>
+      </c>
+      <c r="F457" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G457" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="H457" s="1">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A458" s="4">
+        <v>44860</v>
+      </c>
+      <c r="F458" s="1">
+        <v>4.54</v>
+      </c>
+      <c r="G458" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H458" s="1">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A459" s="4">
+        <v>44861</v>
+      </c>
+      <c r="F459" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G459" s="1">
+        <v>4.09</v>
+      </c>
+      <c r="H459" s="1">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A460" s="4">
+        <v>44862</v>
+      </c>
+      <c r="F460" s="1">
+        <v>4.55</v>
+      </c>
+      <c r="G460" s="1">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="H460" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A461" s="4">
+        <v>44865</v>
+      </c>
+      <c r="F461" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="G461" s="1">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H461" s="1">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A462" s="4">
+        <v>44866</v>
+      </c>
+      <c r="F462" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="G462" s="1">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H462" s="1">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A463" s="4">
+        <v>44867</v>
+      </c>
+      <c r="F463" s="1">
+        <v>4.76</v>
+      </c>
+      <c r="G463" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="H463" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A464" s="4">
+        <v>44868</v>
+      </c>
+      <c r="F464" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="G464" s="1">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="H464" s="1">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A465" s="4">
+        <v>44869</v>
+      </c>
+      <c r="F465" s="1">
+        <v>4.76</v>
+      </c>
+      <c r="G465" s="1">
+        <v>4.33</v>
+      </c>
+      <c r="H465" s="1">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A466" s="4">
+        <v>44872</v>
+      </c>
+      <c r="F466" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="G466" s="1">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H466" s="1">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A467" s="4">
+        <v>44873</v>
+      </c>
+      <c r="F467" s="1">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="G467" s="1">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="H467" s="1">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A468" s="4">
+        <v>44874</v>
+      </c>
+      <c r="F468" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="G468" s="1">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H468" s="1">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A469" s="4">
+        <v>44875</v>
+      </c>
+      <c r="F469" s="1">
+        <v>4.59</v>
+      </c>
+      <c r="G469" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="H469" s="1">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A470" s="4">
+        <v>44879</v>
+      </c>
+      <c r="F470" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="G470" s="1">
+        <v>4</v>
+      </c>
+      <c r="H470" s="1">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A471" s="4">
+        <v>44880</v>
+      </c>
+      <c r="F471" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G471" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="H471" s="1">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A472" s="4">
+        <v>44881</v>
+      </c>
+      <c r="F472" s="1">
+        <v>4.62</v>
+      </c>
+      <c r="G472" s="1">
+        <v>3.83</v>
+      </c>
+      <c r="H472" s="1">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A473" s="4">
+        <v>44882</v>
+      </c>
+      <c r="F473" s="1">
+        <v>4.68</v>
+      </c>
+      <c r="G473" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="H473" s="1">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A474" s="4">
+        <v>44883</v>
+      </c>
+      <c r="F474" s="1">
+        <v>4.74</v>
+      </c>
+      <c r="G474" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="H474" s="1">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A475" s="4">
+        <v>44886</v>
+      </c>
+      <c r="F475" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="G475" s="1">
+        <v>3.97</v>
+      </c>
+      <c r="H475" s="1">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A476" s="4">
+        <v>44887</v>
+      </c>
+      <c r="F476" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="G476" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="H476" s="1">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A477" s="4">
+        <v>44888</v>
+      </c>
+      <c r="F477" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="G477" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="H477" s="1">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A478" s="4">
+        <v>44890</v>
+      </c>
+      <c r="F478" s="1">
+        <v>4.76</v>
+      </c>
+      <c r="G478" s="1">
+        <v>3.85</v>
+      </c>
+      <c r="H478" s="1">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A479" s="4">
+        <v>44893</v>
+      </c>
+      <c r="F479" s="1">
+        <v>4.76</v>
+      </c>
+      <c r="G479" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="H479" s="1">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A480" s="4">
+        <v>44894</v>
+      </c>
+      <c r="F480" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="G480" s="1">
+        <v>3.92</v>
+      </c>
+      <c r="H480" s="1">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A481" s="4">
+        <v>44895</v>
+      </c>
+      <c r="F481" s="1">
+        <v>4.74</v>
+      </c>
+      <c r="G481" s="1">
+        <v>3.82</v>
+      </c>
+      <c r="H481" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A482" s="4">
+        <v>44896</v>
+      </c>
+      <c r="F482" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="G482" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="H482" s="1">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A483" s="4">
+        <v>44897</v>
+      </c>
+      <c r="F483" s="1">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="G483" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="H483" s="1">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A484" s="4">
+        <v>44900</v>
+      </c>
+      <c r="F484" s="1">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="G484" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="H484" s="1">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A485" s="4">
+        <v>44901</v>
+      </c>
+      <c r="F485" s="1">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="G485" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="H485" s="1">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A486" s="4">
+        <v>44902</v>
+      </c>
+      <c r="F486" s="1">
+        <v>4.67</v>
+      </c>
+      <c r="G486" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="H486" s="1">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A487" s="4">
+        <v>44903</v>
+      </c>
+      <c r="F487" s="1">
+        <v>4.71</v>
+      </c>
+      <c r="G487" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="H487" s="1">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A488" s="4">
+        <v>44904</v>
+      </c>
+      <c r="F488" s="1">
+        <v>4.72</v>
+      </c>
+      <c r="G488" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="H488" s="1">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A489" s="4">
+        <v>44907</v>
+      </c>
+      <c r="F489" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="G489" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="H489" s="1">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A490" s="4">
+        <v>44908</v>
+      </c>
+      <c r="F490" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G490" s="1">
+        <v>3.66</v>
+      </c>
+      <c r="H490" s="1">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A491" s="4">
+        <v>44909</v>
+      </c>
+      <c r="F491" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G491" s="1">
+        <v>3.64</v>
+      </c>
+      <c r="H491" s="1">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A492" s="4">
+        <v>44910</v>
+      </c>
+      <c r="F492" s="1">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="G492" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="H492" s="1">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A493" s="4">
+        <v>44911</v>
+      </c>
+      <c r="F493" s="1">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="G493" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="H493" s="1">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A494" s="4">
+        <v>44914</v>
+      </c>
+      <c r="F494" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G494" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H494" s="1">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A495" s="4">
+        <v>44915</v>
+      </c>
+      <c r="F495" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G495" s="1">
+        <v>3.79</v>
+      </c>
+      <c r="H495" s="1">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A496" s="4">
+        <v>44916</v>
+      </c>
+      <c r="F496" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G496" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="H496" s="1">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A497" s="4">
+        <v>44917</v>
+      </c>
+      <c r="F497" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G497" s="1">
+        <v>3.79</v>
+      </c>
+      <c r="H497" s="1">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A498" s="4">
+        <v>44918</v>
+      </c>
+      <c r="F498" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="G498" s="1">
+        <v>3.86</v>
+      </c>
+      <c r="H498" s="1">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A499" s="4">
+        <v>44922</v>
+      </c>
+      <c r="F499" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="G499" s="1">
+        <v>3.94</v>
+      </c>
+      <c r="H499" s="1">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A500" s="4">
+        <v>44923</v>
+      </c>
+      <c r="F500" s="1">
+        <v>4.71</v>
+      </c>
+      <c r="G500" s="1">
+        <v>3.97</v>
+      </c>
+      <c r="H500" s="1">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A501" s="4">
+        <v>44924</v>
+      </c>
+      <c r="F501" s="1">
+        <v>4.71</v>
+      </c>
+      <c r="G501" s="1">
+        <v>3.94</v>
+      </c>
+      <c r="H501" s="1">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A502" s="4">
+        <v>44925</v>
+      </c>
+      <c r="F502" s="1">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="G502" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="H502" s="1">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A503" s="4">
+        <v>44929</v>
+      </c>
+      <c r="F503" s="1">
+        <v>4.72</v>
+      </c>
+      <c r="G503" s="1">
+        <v>3.94</v>
+      </c>
+      <c r="H503" s="1">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A504" s="4">
+        <v>44930</v>
+      </c>
+      <c r="F504" s="1">
+        <v>4.71</v>
+      </c>
+      <c r="G504" s="1">
+        <v>3.85</v>
+      </c>
+      <c r="H504" s="1">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A505" s="4">
+        <v>44931</v>
+      </c>
+      <c r="F505" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="G505" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H505" s="1">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A506" s="4">
+        <v>44932</v>
+      </c>
+      <c r="F506" s="1">
+        <v>4.71</v>
+      </c>
+      <c r="G506" s="1">
+        <v>3.69</v>
+      </c>
+      <c r="H506" s="1">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A507" s="4">
+        <v>44935</v>
+      </c>
+      <c r="F507" s="1">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="G507" s="1">
+        <v>3.66</v>
+      </c>
+      <c r="H507" s="1">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A508" s="4">
+        <v>44936</v>
+      </c>
+      <c r="F508" s="1">
+        <v>4.74</v>
+      </c>
+      <c r="G508" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="H508" s="1">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A509" s="4">
+        <v>44937</v>
+      </c>
+      <c r="F509" s="1">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="G509" s="1">
+        <v>3.66</v>
+      </c>
+      <c r="H509" s="1">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A510" s="4">
+        <v>44938</v>
+      </c>
+      <c r="F510" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="G510" s="1">
+        <v>3.53</v>
+      </c>
+      <c r="H510" s="1">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A511" s="4">
+        <v>44939</v>
+      </c>
+      <c r="F511" s="1">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="G511" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H511" s="1">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A512" s="4">
+        <v>44943</v>
+      </c>
+      <c r="F512" s="1">
+        <v>4.67</v>
+      </c>
+      <c r="G512" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H512" s="1">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A513" s="4">
+        <v>44944</v>
+      </c>
+      <c r="F513" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="G513" s="1">
+        <v>3.43</v>
+      </c>
+      <c r="H513" s="1">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A514" s="4">
+        <v>44945</v>
+      </c>
+      <c r="F514" s="1">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="G514" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="H514" s="1">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A515" s="4">
+        <v>44946</v>
+      </c>
+      <c r="F515" s="1">
+        <v>4.68</v>
+      </c>
+      <c r="G515" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="H515" s="1">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A516" s="4">
+        <v>44949</v>
+      </c>
+      <c r="F516" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="G516" s="1">
+        <v>3.61</v>
+      </c>
+      <c r="H516" s="1">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A517" s="4">
+        <v>44950</v>
+      </c>
+      <c r="F517" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="G517" s="1">
+        <v>3.58</v>
+      </c>
+      <c r="H517" s="1">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A518" s="4">
+        <v>44951</v>
+      </c>
+      <c r="F518" s="1">
+        <v>4.67</v>
+      </c>
+      <c r="G518" s="1">
+        <v>3.54</v>
+      </c>
+      <c r="H518" s="1">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A519" s="4">
+        <v>44952</v>
+      </c>
+      <c r="F519" s="1">
+        <v>4.68</v>
+      </c>
+      <c r="G519" s="1">
+        <v>3.58</v>
+      </c>
+      <c r="H519" s="1">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A520" s="4">
+        <v>44953</v>
+      </c>
+      <c r="F520" s="1">
+        <v>4.68</v>
+      </c>
+      <c r="G520" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="H520" s="1">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A521" s="4">
+        <v>44956</v>
+      </c>
+      <c r="F521" s="1">
+        <v>4.71</v>
+      </c>
+      <c r="G521" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="H521" s="1">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A522" s="4">
+        <v>44957</v>
+      </c>
+      <c r="F522" s="1">
+        <v>4.68</v>
+      </c>
+      <c r="G522" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="H522" s="1">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A523" s="4">
+        <v>44958</v>
+      </c>
+      <c r="F523" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="G523" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="H523" s="1">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A524" s="4">
+        <v>44959</v>
+      </c>
+      <c r="F524" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G524" s="1">
+        <v>3.49</v>
+      </c>
+      <c r="H524" s="1">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A525" s="4">
+        <v>44960</v>
+      </c>
+      <c r="F525" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="G525" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="H525" s="1">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A526" s="4">
+        <v>44963</v>
+      </c>
+      <c r="F526" s="1">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G526" s="1">
+        <v>3.81</v>
+      </c>
+      <c r="H526" s="1">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A527" s="4">
+        <v>44964</v>
+      </c>
+      <c r="F527" s="1">
+        <v>4.88</v>
+      </c>
+      <c r="G527" s="1">
+        <v>3.85</v>
+      </c>
+      <c r="H527" s="1">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A528" s="4">
+        <v>44965</v>
+      </c>
+      <c r="F528" s="1">
+        <v>4.87</v>
+      </c>
+      <c r="G528" s="1">
+        <v>3.82</v>
+      </c>
+      <c r="H528" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A529" s="4">
+        <v>44966</v>
+      </c>
+      <c r="F529" s="1">
+        <v>4.88</v>
+      </c>
+      <c r="G529" s="1">
+        <v>3.87</v>
+      </c>
+      <c r="H529" s="1">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A530" s="4">
+        <v>44967</v>
+      </c>
+      <c r="F530" s="1">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G530" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="H530" s="1">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A531" s="4">
+        <v>44970</v>
+      </c>
+      <c r="F531" s="1">
+        <v>4.91</v>
+      </c>
+      <c r="G531" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="H531" s="1">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A532" s="4">
+        <v>44971</v>
+      </c>
+      <c r="F532" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="G532" s="1">
+        <v>4</v>
+      </c>
+      <c r="H532" s="1">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A533" s="4">
+        <v>44972</v>
+      </c>
+      <c r="F533" s="1">
+        <v>4.96</v>
+      </c>
+      <c r="G533" s="1">
+        <v>4.04</v>
+      </c>
+      <c r="H533" s="1">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A534" s="4">
+        <v>44973</v>
+      </c>
+      <c r="F534" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="G534" s="1">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="H534" s="1">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A535" s="4">
+        <v>44974</v>
+      </c>
+      <c r="F535" s="1">
+        <v>5</v>
+      </c>
+      <c r="G535" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="H535" s="1">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A536" s="4">
+        <v>44978</v>
+      </c>
+      <c r="F536" s="1">
+        <v>5.07</v>
+      </c>
+      <c r="G536" s="1">
+        <v>4.16</v>
+      </c>
+      <c r="H536" s="1">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A537" s="4">
+        <v>44979</v>
+      </c>
+      <c r="F537" s="1">
+        <v>5.07</v>
+      </c>
+      <c r="G537" s="1">
+        <v>4.13</v>
+      </c>
+      <c r="H537" s="1">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A538" s="4">
+        <v>44980</v>
+      </c>
+      <c r="F538" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="G538" s="1">
+        <v>4.09</v>
+      </c>
+      <c r="H538" s="1">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A539" s="4">
+        <v>44981</v>
+      </c>
+      <c r="F539" s="1">
+        <v>5.05</v>
+      </c>
+      <c r="G539" s="1">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="H539" s="1">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A540" s="4">
+        <v>44984</v>
+      </c>
+      <c r="F540" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="G540" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="H540" s="1">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A541" s="4">
+        <v>44985</v>
+      </c>
+      <c r="F541" s="1">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="G541" s="1">
+        <v>4.18</v>
+      </c>
+      <c r="H541" s="1">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A542" s="4">
+        <v>44986</v>
+      </c>
+      <c r="F542" s="1">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G542" s="1">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H542" s="1">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A543" s="4">
+        <v>44987</v>
+      </c>
+      <c r="F543" s="1">
+        <v>5.04</v>
+      </c>
+      <c r="G543" s="1">
+        <v>4.32</v>
+      </c>
+      <c r="H543" s="1">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A544" s="4">
+        <v>44988</v>
+      </c>
+      <c r="F544" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="G544" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="H544" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A545" s="4">
+        <v>44991</v>
+      </c>
+      <c r="F545" s="1">
+        <v>5.05</v>
+      </c>
+      <c r="G545" s="1">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H545" s="1">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A546" s="4">
+        <v>44992</v>
+      </c>
+      <c r="F546" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="G546" s="1">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="H546" s="1">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A547" s="4">
+        <v>44993</v>
+      </c>
+      <c r="F547" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="G547" s="1">
+        <v>4.34</v>
+      </c>
+      <c r="H547" s="1">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A548" s="4">
+        <v>44994</v>
+      </c>
+      <c r="F548" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="G548" s="1">
+        <v>4.22</v>
+      </c>
+      <c r="H548" s="1">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A549" s="4">
+        <v>44995</v>
+      </c>
+      <c r="F549" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G549" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="H549" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A550" s="4">
+        <v>44998</v>
+      </c>
+      <c r="F550" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="G550" s="1">
+        <v>3.68</v>
+      </c>
+      <c r="H550" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A551" s="4">
+        <v>44999</v>
+      </c>
+      <c r="F551" s="1">
+        <v>4.45</v>
+      </c>
+      <c r="G551" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="H551" s="1">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A552" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F552" s="1">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="G552" s="1">
+        <v>3.59</v>
+      </c>
+      <c r="H552" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A553" s="4">
+        <v>45001</v>
+      </c>
+      <c r="F553" s="1">
+        <v>4.49</v>
+      </c>
+      <c r="G553" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="H553" s="1">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A554" s="4">
+        <v>45002</v>
+      </c>
+      <c r="F554" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="G554" s="1">
+        <v>3.44</v>
+      </c>
+      <c r="H554" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A555" s="4">
+        <v>45005</v>
+      </c>
+      <c r="F555" s="1">
+        <v>4.34</v>
+      </c>
+      <c r="G555" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="H555" s="1">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A556" s="4">
+        <v>45006</v>
+      </c>
+      <c r="F556" s="1">
+        <v>4.68</v>
+      </c>
+      <c r="G556" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="H556" s="1">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A557" s="4">
+        <v>45007</v>
+      </c>
+      <c r="F557" s="1">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="G557" s="1">
+        <v>3.54</v>
+      </c>
+      <c r="H557" s="1">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A558" s="4">
+        <v>45008</v>
+      </c>
+      <c r="F558" s="1">
+        <v>4.38</v>
+      </c>
+      <c r="G558" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="H558" s="1">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A559" s="4">
+        <v>45009</v>
+      </c>
+      <c r="F559" s="1">
+        <v>4.32</v>
+      </c>
+      <c r="G559" s="1">
+        <v>3.41</v>
+      </c>
+      <c r="H559" s="1">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A560" s="4">
+        <v>45012</v>
+      </c>
+      <c r="F560" s="1">
+        <v>4.51</v>
+      </c>
+      <c r="G560" s="1">
+        <v>3.59</v>
+      </c>
+      <c r="H560" s="1">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A561" s="4">
+        <v>45013</v>
+      </c>
+      <c r="F561" s="1">
+        <v>4.55</v>
+      </c>
+      <c r="G561" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="H561" s="1">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A562" s="4">
+        <v>45014</v>
+      </c>
+      <c r="F562" s="1">
+        <v>4.59</v>
+      </c>
+      <c r="G562" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="H562" s="1">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A563" s="4">
+        <v>45015</v>
+      </c>
+      <c r="F563" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="G563" s="1">
+        <v>3.66</v>
+      </c>
+      <c r="H563" s="1">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A564" s="4">
+        <v>45016</v>
+      </c>
+      <c r="F564" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G564" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H564" s="1">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A565" s="4">
+        <v>45019</v>
+      </c>
+      <c r="F565" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G565" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="H565" s="1">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A566" s="4">
+        <v>45020</v>
+      </c>
+      <c r="F566" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G566" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="H566" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A567" s="4">
+        <v>45021</v>
+      </c>
+      <c r="F567" s="1">
+        <v>4.43</v>
+      </c>
+      <c r="G567" s="1">
+        <v>3.36</v>
+      </c>
+      <c r="H567" s="1">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A568" s="4">
+        <v>45022</v>
+      </c>
+      <c r="F568" s="1">
+        <v>4.51</v>
+      </c>
+      <c r="G568" s="1">
+        <v>3.37</v>
+      </c>
+      <c r="H568" s="1">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A569" s="4">
+        <v>45023</v>
+      </c>
+      <c r="F569" s="1">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="G569" s="1">
+        <v>3.49</v>
+      </c>
+      <c r="H569" s="1">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A570" s="4">
+        <v>45026</v>
+      </c>
+      <c r="F570" s="1">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="G570" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="H570" s="1">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A571" s="4">
+        <v>45027</v>
+      </c>
+      <c r="F571" s="1">
+        <v>4.67</v>
+      </c>
+      <c r="G571" s="1">
+        <v>3.54</v>
+      </c>
+      <c r="H571" s="1">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A572" s="4">
+        <v>45028</v>
+      </c>
+      <c r="F572" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G572" s="1">
+        <v>3.46</v>
+      </c>
+      <c r="H572" s="1">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A573" s="4">
+        <v>45029</v>
+      </c>
+      <c r="F573" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="G573" s="1">
+        <v>3.51</v>
+      </c>
+      <c r="H573" s="1">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A574" s="4">
+        <v>45030</v>
+      </c>
+      <c r="F574" s="1">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="G574" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H574" s="1">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A575" s="4">
+        <v>45033</v>
+      </c>
+      <c r="F575" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="G575" s="1">
+        <v>3.69</v>
+      </c>
+      <c r="H575" s="1">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A576" s="4">
+        <v>45034</v>
+      </c>
+      <c r="F576" s="1">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="G576" s="1">
+        <v>3.69</v>
+      </c>
+      <c r="H576" s="1">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A577" s="4">
+        <v>45035</v>
+      </c>
+      <c r="F577" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="G577" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="H577" s="1">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A578" s="4">
+        <v>45036</v>
+      </c>
+      <c r="F578" s="1">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="G578" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="H578" s="1">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A579" s="4">
+        <v>45037</v>
+      </c>
+      <c r="F579" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="G579" s="1">
+        <v>3.66</v>
+      </c>
+      <c r="H579" s="1">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A580" s="4">
+        <v>45040</v>
+      </c>
+      <c r="F580" s="1">
+        <v>4.76</v>
+      </c>
+      <c r="G580" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H580" s="1">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A581" s="4">
+        <v>45041</v>
+      </c>
+      <c r="F581" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G581" s="1">
+        <v>3.43</v>
+      </c>
+      <c r="H581" s="1">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A582" s="4">
+        <v>45042</v>
+      </c>
+      <c r="F582" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G582" s="1">
+        <v>3.46</v>
+      </c>
+      <c r="H582" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A583" s="4">
+        <v>45043</v>
+      </c>
+      <c r="F583" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="G583" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H583" s="1">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A584" s="4">
+        <v>45044</v>
+      </c>
+      <c r="F584" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="G584" s="1">
+        <v>3.51</v>
+      </c>
+      <c r="H584" s="1">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A585" s="4">
+        <v>45047</v>
+      </c>
+      <c r="F585" s="1">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G585" s="1">
+        <v>3.64</v>
+      </c>
+      <c r="H585" s="1">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A586" s="4">
+        <v>45048</v>
+      </c>
+      <c r="F586" s="1">
+        <v>4.74</v>
+      </c>
+      <c r="G586" s="1">
+        <v>3.46</v>
+      </c>
+      <c r="H586" s="1">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A587" s="4">
+        <v>45049</v>
+      </c>
+      <c r="F587" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="G587" s="1">
+        <v>3.37</v>
+      </c>
+      <c r="H587" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A588" s="4">
+        <v>45050</v>
+      </c>
+      <c r="F588" s="1">
+        <v>4.59</v>
+      </c>
+      <c r="G588" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="H588" s="1">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A589" s="4">
+        <v>45051</v>
+      </c>
+      <c r="F589" s="1">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="G589" s="1">
+        <v>3.41</v>
+      </c>
+      <c r="H589" s="1">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A590" s="4">
+        <v>45054</v>
+      </c>
+      <c r="F590" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="G590" s="1">
+        <v>3.49</v>
+      </c>
+      <c r="H590" s="1">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A591" s="4">
+        <v>45055</v>
+      </c>
+      <c r="F591" s="1">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="G591" s="1">
+        <v>3.51</v>
+      </c>
+      <c r="H591" s="1">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A592" s="4">
+        <v>45056</v>
+      </c>
+      <c r="F592" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="G592" s="1">
+        <v>3.37</v>
+      </c>
+      <c r="H592" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A593" s="4">
+        <v>45057</v>
+      </c>
+      <c r="F593" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="G593" s="1">
+        <v>3.36</v>
+      </c>
+      <c r="H593" s="1">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A594" s="4">
+        <v>45058</v>
+      </c>
+      <c r="F594" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="G594" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="H594" s="1">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A595" s="4">
+        <v>45061</v>
+      </c>
+      <c r="F595" s="1">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="G595" s="1">
+        <v>3.46</v>
+      </c>
+      <c r="H595" s="1">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A596" s="4">
+        <v>45062</v>
+      </c>
+      <c r="F596" s="1">
+        <v>4.88</v>
+      </c>
+      <c r="G596" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="H596" s="1">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A597" s="4">
+        <v>45063</v>
+      </c>
+      <c r="F597" s="1">
+        <v>4.92</v>
+      </c>
+      <c r="G597" s="1">
+        <v>3.58</v>
+      </c>
+      <c r="H597" s="1">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A598" s="4">
+        <v>45064</v>
+      </c>
+      <c r="F598" s="1">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="G598" s="1">
+        <v>3.69</v>
+      </c>
+      <c r="H598" s="1">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A599" s="4">
+        <v>45065</v>
+      </c>
+      <c r="F599" s="1">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="G599" s="1">
+        <v>3.76</v>
+      </c>
+      <c r="H599" s="1">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A600" s="4">
+        <v>45068</v>
+      </c>
+      <c r="F600" s="1">
+        <v>5.07</v>
+      </c>
+      <c r="G600" s="1">
+        <v>3.77</v>
+      </c>
+      <c r="H600" s="1">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A601" s="4">
+        <v>45069</v>
+      </c>
+      <c r="F601" s="1">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G601" s="1">
+        <v>3.76</v>
+      </c>
+      <c r="H601" s="1">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A602" s="4">
+        <v>45070</v>
+      </c>
+      <c r="F602" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="G602" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="H602" s="1">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A603" s="4">
+        <v>45071</v>
+      </c>
+      <c r="F603" s="1">
+        <v>5.24</v>
+      </c>
+      <c r="G603" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H603" s="1">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A604" s="4">
+        <v>45072</v>
+      </c>
+      <c r="F604" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="G604" s="1">
+        <v>3.92</v>
+      </c>
+      <c r="H604" s="1">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A605" s="4">
+        <v>45076</v>
+      </c>
+      <c r="F605" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="G605" s="1">
+        <v>3.81</v>
+      </c>
+      <c r="H605" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A606" s="4">
+        <v>45077</v>
+      </c>
+      <c r="F606" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="G606" s="1">
+        <v>3.74</v>
+      </c>
+      <c r="H606" s="1">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A607" s="4">
+        <v>45078</v>
+      </c>
+      <c r="F607" s="1">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="G607" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H607" s="1">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A608" s="4">
+        <v>45079</v>
+      </c>
+      <c r="F608" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="G608" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="H608" s="1">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A609" s="4">
+        <v>45082</v>
+      </c>
+      <c r="F609" s="1">
+        <v>5.17</v>
+      </c>
+      <c r="G609" s="1">
+        <v>3.82</v>
+      </c>
+      <c r="H609" s="1">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A610" s="4">
+        <v>45083</v>
+      </c>
+      <c r="F610" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="G610" s="1">
+        <v>3.85</v>
+      </c>
+      <c r="H610" s="1">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A611" s="4">
+        <v>45084</v>
+      </c>
+      <c r="F611" s="1">
+        <v>5.16</v>
+      </c>
+      <c r="G611" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="H611" s="1">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A612" s="4">
+        <v>45085</v>
+      </c>
+      <c r="F612" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="G612" s="1">
+        <v>3.87</v>
+      </c>
+      <c r="H612" s="1">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A613" s="4">
+        <v>45086</v>
+      </c>
+      <c r="F613" s="1">
+        <v>5.17</v>
+      </c>
+      <c r="G613" s="1">
+        <v>3.92</v>
+      </c>
+      <c r="H613" s="1">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A614" s="4">
+        <v>45089</v>
+      </c>
+      <c r="F614" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="G614" s="1">
+        <v>3.89</v>
+      </c>
+      <c r="H614" s="1">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A615" s="4">
+        <v>45090</v>
+      </c>
+      <c r="F615" s="1">
+        <v>5.26</v>
+      </c>
+      <c r="G615" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="H615" s="1">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A616" s="4">
+        <v>45091</v>
+      </c>
+      <c r="F616" s="1">
+        <v>5.27</v>
+      </c>
+      <c r="G616" s="1">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="H616" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A617" s="4">
+        <v>45092</v>
+      </c>
+      <c r="F617" s="1">
+        <v>5.21</v>
+      </c>
+      <c r="G617" s="1">
+        <v>3.91</v>
+      </c>
+      <c r="H617" s="1">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A618" s="4">
+        <v>45093</v>
+      </c>
+      <c r="F618" s="1">
+        <v>5.24</v>
+      </c>
+      <c r="G618" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="H618" s="1">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A619" s="4">
+        <v>45097</v>
+      </c>
+      <c r="F619" s="1">
+        <v>5.24</v>
+      </c>
+      <c r="G619" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="H619" s="1">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A620" s="4">
+        <v>45098</v>
+      </c>
+      <c r="F620" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="G620" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="H620" s="1">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A621" s="4">
+        <v>45099</v>
+      </c>
+      <c r="F621" s="1">
+        <v>5.29</v>
+      </c>
+      <c r="G621" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="H621" s="1">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A622" s="4">
+        <v>45100</v>
+      </c>
+      <c r="F622" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="G622" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="H622" s="1">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A623" s="4">
+        <v>45103</v>
+      </c>
+      <c r="F623" s="1">
+        <v>5.27</v>
+      </c>
+      <c r="G623" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="H623" s="1">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A624" s="4">
+        <v>45104</v>
+      </c>
+      <c r="F624" s="1">
+        <v>5.33</v>
+      </c>
+      <c r="G624" s="1">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="H624" s="1">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A625" s="4">
+        <v>45105</v>
+      </c>
+      <c r="F625" s="1">
+        <v>5.32</v>
+      </c>
+      <c r="G625" s="1">
+        <v>3.97</v>
+      </c>
+      <c r="H625" s="1">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A626" s="4">
+        <v>45106</v>
+      </c>
+      <c r="F626" s="1">
+        <v>5.41</v>
+      </c>
+      <c r="G626" s="1">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="H626" s="1">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A627" s="4">
+        <v>45107</v>
+      </c>
+      <c r="F627" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="G627" s="1">
+        <v>4.13</v>
+      </c>
+      <c r="H627" s="1">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A628" s="4">
+        <v>45110</v>
+      </c>
+      <c r="F628" s="1">
+        <v>5.43</v>
+      </c>
+      <c r="G628" s="1">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="H628" s="1">
+        <v>3.87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>